--- a/Netbeans/ANA-ADDIX/output/data_storage/nikkan.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/nikkan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45AFC5-F083-40B3-B3EC-742E077327B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD706"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Netbeans/ANA-ADDIX/output/data_storage/nikkan.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/nikkan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
@@ -49,6 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -463,7 +464,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +520,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +604,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +632,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +686,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +798,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +854,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -879,7 +880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
